--- a/deuChatbot/research_result/results/meteor_score/meteor_version_1(2000_400).xlsx
+++ b/deuChatbot/research_result/results/meteor_score/meteor_version_1(2000_400).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6025,61 +6025,3457 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 다음과 같이 구성되어 있습니다:
+1. **모집단위**: 디자인조형학과는 시각디자인, 산업디자인, 공예디자인 중에서 선택할 수 있는 종목이 주어집니다.
+2. **종목별 배점**:
+   - 시각디자인: 700점 (70%)
+   - 산업디자인: 700점 (70%)
+   - 공예디자인: 700점 (70%)
+3. **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+4. **실기주제**:
+   - 주제A와 주제B를 각각 선택하여 연결된 주제로 작업을 진행합니다.
+   - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+5. **화지크기**: 켄트지 3절
+6. **시간**: 5시간
+이러한 정보를 바탕으로 디자인조형학과의 실기시험은 종목 선택에 따라 다르게 구성되며, 주제와 화질을 표현하는 능력이 중요하게 평가됩니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.4206791453140423</v>
+        <v>0.42319129535627</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 다음과 같습니다:
+1. 시각디자인
+2. 산업디자인
+3. 공예디자인
+준비물:
+- 볼펜
+- 연필
+- 색연필
+- 수채물감 등 표현에 필요한 도구
+실기주제:
+- 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다.
+화지크기:
+- 켄트지3절 (시각디자인)
+- 켄트지2절 (사고의 전환)
+시간:
+- 5시간
+참고로, 시각디자인 종목은 기초디자인과 사고의 전환 중 선택해야 합니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.2981768525347597</v>
+        <v>0.6302257054406195</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남):
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남):
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.9894516673000953</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용될 수 있는 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울
+당일에는 이 주제들 중 각각 1개씩을 선택하여 연결된 주제를 만들게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.7380727569781134</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>네, 학생부교과 전형에서 출결 점수가 반영됩니다. 
+具体的来说，在学生部综合（平生学习者/成人学员[定员内外]）招生中，出勤情况占12%的比重。这可以从以下信息中看出：
+```
+나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 전형요소 반영비율
+...
+모집단위 / 전형요소 반영비율 { 서류 / 출결 / 학생부교과 }
+...
+경기지도학과 / { 18% /  12% /  70% / } /
+```
+从上述表格中可以看到，对于 경기지도학和（其他可能的招生类别），出勤情况（출결）占12%的比例。</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.05878798342541437</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 항목을 통해 얻었습니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.225</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 /
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 섹션에서 얻었습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.2836520122067518</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다.
+의료보건생활대학 간호학과는 나군 일반학생전형으로 모집인원이 22명이며, 해당 정보는 제공된 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.2921224860268476</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 1등급 : 139점
+- 2등급 : 131점 
+- 3등급 : 123점
+- 4등급 : 115점
+- 5등급 : 107점
+- 6등급 : 99점
+- 7등급 : 91점
+- 8등급 : 83점
+- 9등급 : 75점</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.9971075371690319</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 출신 학생은 농어촌학생전형에 지원할 수 없습니다. 관련 규정에 따르면, 농어촌학생전형의 지원 자격 중 하나로 "농어촌(읍·면)지역에 소재하는 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다."라고 명시되어 있습니다.
+따라서 예술고 학생은 농어촌학생전형으로 지원할 수 없으며, 다른 전형을 통해 지원해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.4202948721362696</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 배점은 275점입니다.
+이 정보는 다음과 같은 표에서 얻었습니다:
+```
+레저스포츠학과 / 제자리 멀리뛰기 / 350점(35%) /
+레저스포츠학과 / Z-런 / 350점(35%) /
+1 / { 280이상 /  230 이상 /  350 / } / { 14.39이하 /  15.29이하 /  350 / } /
+2 / { 276~279 /  226~229 /  325 / } / { 14.40~14.59 /  15.30~15.49 /  325 / } /
+3 / { 272～275 /  222~225 /  300 / } / { 14.60~14.79 /  15.50~15.69 /  300 / } /
+4 / { 268～271 /  218~221 /  275 / } / { 14.80~14.99 /  15.70~15.89 /  275 / } /
+5 / { 264～267 /  214~217 /  250 / } / { 15.00∼15.19 /  15.90~16.09 /  250 / } /
+6 / { 260～263 /  210~213 /  225 / } / { 15.20∼15.39 /  16.10~16.29 /  225 / } /
+7 / { 256～259 /  206~209 /  200 / } / { 15.40∼15.59 /  16.30~16.49 /  200 / } /
+8 / { 252～255 /  202~205 /  175 / } / { 15.60∼15.79 /  16.50~16.69 /  175 / } /
+9 / { 248～251 /  198~201 /  150 / } / { 15.80∼15.99 /  16.70~16.89 /  150 / } /
+10 / { 244～247 /  194~197 /  125 / } / { 16.00∼16.19 /  16.90~17.09 /  125 / } /
+11 / { 240～243 /  190~193 /  100 / } / { 16.20∼16.39 /  17.10~17.29 /  100 / } /
+12 / { 236~239 /  186~189 /  75 / } / { 16.40∼16.59 /  17.30~17.49 /  75 / } /
+13 / { 232~235 /  182~185 /  50 / } / { 16.60∼16.79 /  17.50~17.69 /  50 / } /
+14 / { 228~231 /  178~181 /  25 / } / { 16.80∼16.99 /  17.70~17.89 /  25 / } /
+15 / { 227이하 /  177이하 /  0 / } / { 17.00이상 /  17.90이상 /  0 / } /
+```</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.03593334943250422</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과의 출결 반영 비율은 12%입니다.
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 표에서 확인할 수 있습니다. 해당 표에 따르면 경기지도학과의 전형요소 반영 비율은 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12% 
+- 서류(경기실적): 70%
+따라서 출결의 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.137133875970606</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.
+이 정보는 "나군 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 물리치료학과 항목에 기재되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.3185714285714286</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024년 1월 17일(수)에 진행됩니다.
+관련 정보는 아래와 같습니다:
+```
+&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과 / 2024. 01. 17.(수) / ...
+```</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.103743797925124</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 공과대학 응용화학과의 수능 최저기준 정보는 제공된 데이터에서 확인할 수 없습니다. 제공된 표('전형요소 반영비율')에서는 수능 최저기준이 표시되어 있지 않습니다.
+수능 최저기준에 대한 자세한 정보를 얻으려면, 동의대학교 입학처 웹사이트나 학교 관계자에게 직접 문의하시는 것이 가장 정확할 것입니다. 제공된 데이터에서 확인 가능한 내용은 수능 성적이 100% 반영되는 점입니다.
+추가로, 수능 최저기준에 대한 자세한 정보는 동의대학교 입학처 홈페이지나 학교 관계자에게 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.04163953993055555</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과와 전공은 다음과 같습니다:
+1. 경기지도학과 (신설)
+2. 라이프융합학부 (신설) - 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학
+3. 스마트항만물류학과 (신설)
+4. 창업투자경영학과 (신설)
+또한 일부 전공의 모집이 중지되었습니다:
+1. 산업융합시스템공학부(산업ICT기술공학) - 모집중지
+2. 전기전자통신공학부(정보통신공학) - 모집중지
+3. 디자인조형학과(서양화·한국화·환경조형) - 모집중지
+이 정보는 주요 변경사항 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.3364074749855099</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 평가: 70%
+- 면접 평가: 30%
+이 비율은 성인학습자전형에 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.5344248898228409</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 공과대학, ICT융합공과대학 모집단위에서 수학(미적분 또는 기하) 응시자에게 가산점이 부여됩니다. 
+具体的来说，只有在申请公科学校（工科学院）和ICT融合工科学院的学科时，参加数学（微积分或几何）考试的学生才能获得加权分数。</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.6364636097040789</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 수능 성적이 전형 요소 중 100%를 차지합니다. 
+이 점에 대해 자세히 설명하면:
+- 가군 수능(일반학생전형)에서 전 모집단위 (레저스포츠학과, 태권도학과 제외)는 수능 성적이 100%의 비율로 반영됩니다. 
+- 즉, 수능 점수만을 기준으로 학생들을 평가하고 선발합니다.
+참고로, 동점자가 발생할 경우 다음과 같은 순위별 처리기준이 적용됩니다:
+1. 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수) 영역의 합계점수가 높은 순으로 선발합니다.
+2. 그 다음으로는 인문사회과학대학, 상경대학 모집단위에서는 수능 국어영역 표준점수가 높은 순으로 선발합니다.
+3. 의료‧보건‧생활대학, 공과대학 ICT융합공과대학 모집단위에서는 수능 수학(미적분 또는 기하) 영역의 표준점수가 높은 순으로 선발합니다.
+4. 마지막으로는 인문사회과학대학, 상경대학 모집단위에서는 수능 영어영역 등급에 따른 점수가 높은 순으로 선발합니다.
+5. 의료‧보건‧생활대학, 공과대학 ICT융합공과대학 모집단위에서는 수능 수학영역 표준점수가 높은 순으로 선발합니다.
+이러한 방식으로 동점자가 발생할 경우 학생들을 차등화하여 선발합니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.0665056826686091</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같이 일정이 정해져 있습니다:
+- 레저스포츠학과와 태권도학과의 실기고사는 **2024. 01. 16.(화)**에 시행됩니다.
+따라서, 동의대학교 가군 실기고사 날짜는 **2024년 1월 16일(화)입니다**.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.2935188861787081</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 디자인조형학과, 체육학과는 실기/실적 위주 전형으로 분류되어 있습니다. 따라서 일반학생전형에서는 레저스포츠학과와 태권도학과만 모집하며, 디자인조형학과와 체육학과는 실기/실적을 반영하는 전형으로 지원이 가능합니다.
+즉, 나군 수능(일반학생전형)에서 제외된 모집단위는:
+- 디자인조형학과
+- 체육학과
+입니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.2294795704134367</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 표 "전형요소 반영비율"에서 확인할 수 있습니다.
+관련 정보:
+- 다군 수능(일반학생전형)의 수능최저기준 항목은 "없음"으로 표시되어 있습니다.
+따라서, 2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.2217978529207232</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 여러 학과가 학부에서 학과로 분리되었습니다. 주요 변경 사항은 다음과 같습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이 외에도 일부 학과는 신설되었거나 모집을 중지하였습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.8876095503475453</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수 마감일은 **2024년 1월 6일(토) 18시**까지입니다. 이 기간 내에 원서 접수를 완료해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.5573446327683617</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 주요 전형들은 다음과 같습니다:
+1. **영어영문학과 (가)와 (다) 변경**
+   - 2023학년도: 가군
+   - 2024학년도: 다군
+2. **호텔‧컨벤션경영학과 (나)와 (가) 변경**
+   - 2023학년도: 나군
+   - 2024학년도: 가군
+3. **로봇자동화공학과 (나)와 (가) 변경**
+   - 2023학년도: 나군
+   - 2024학년도: 가군
+4. **토목공학과 (가)와 (나) 변경**
+   - 2023학년도: 가군
+   - 2024학년도: 나군
+5. **응용화학과 (가)와 (다) 변경**
+   - 2023학년도: 가군
+   - 2024학년도: 다군
+6. **바이오의약공학과 (다)와 (나) 변경**
+   - 2023학년도: 다군
+   - 2024학년도: 나군
+7. **제품디자인공학과 (나)와 (가) 변경**
+   - 2023학년도: 나군
+   - 2024학년도: 가군
+8. **전기공학과 (나)와 (가) 변경**
+   - 2023학년도: 나군
+   - 2024학년도: 가군
+9. **전자공학과 (나)와 (가) 변경**
+   - 2023학년도: 나군
+   - 2024학년도: 가군
+이러한 변화는 전형별로 모집인원과 함께 변경되었음을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.266503190519599</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적(일반학생전형)에서는 레저스포츠학과와 태권도학과를 제외한 경우 실기가 반영되지 않습니다. 
+즉, 전 모집단위에서 실기는 반영되지 않으며, 비중은 0%입니다.
+레저스포츠학과와 태권도학과의 경우에는 실기가 70%의 비중을 차지합니다.
+따라서 정리하면:
+- 레저스포츠학과 / 태권도학과: 실기 70%, 수능 30%
+- 그 외 모집단위: 실기 0%, 수능 100%</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.1196920697412823</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 '라이프융합학부'는 세부 전공으로 다음과 같이 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+따라서, 라이프융합학부는 이 3가지 전공을 포함하고 있으며, 각 전공별로 다양한 분야의 지식과 기술을 학습할 수 있는 교육 프로그램이 마련되어 있을 것으로 예상됩니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.391031363523778</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과만 가군에서 실기고사가 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.5368525044884157</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+4. 체육학과
+이러한 학과들은 "실기/실적 위주" 전형으로 모집을 진행합니다.
+참고로, 각 학과별 모집 인원은 다음과 같습니다:
+- 레저스포츠학과: 11명
+- 태권도학과: 5명
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인): 24명
+- 체육학과: 7명
+지원을 원하는 학생들은 해당 학과의 모집요강을 자세히 확인하여 지원할 수 있는 전형 유형과 기타 요구 사항을 숙지하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.2065232477446218</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학 인문사회 학부에 신설된 라이프융합학부에서는 다음과 같은 전공을 제공합니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학
+这三个专业旨在融合生活、文化和商业，为学生提供跨领域的知识和技能。</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.6612635971286386</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，对于普通高中、自主高中、特殊教育高中和英才高中的学生来说，他们是可以申请一般学籍的。但是具体到特殊目的高中（Special Purpose High School），需要查看具体的招生要求。
+从给定的信息来看：
+- 普通高中 (일반고) / 自主高中 (자율고) / 特殊教育高中和体育、艺术高中 (특수목적고 { 과학고, 국제고, 외국어고 / 예술고, 체육고 / 마이스터고 })：支持申请
+- 特殊目的高中 (특성화고 { 특성(직업) / 特性(大安) })：不支持申请
+因此，如果你是特殊目的高中的学生，并且不是职业或大安类型的特殊目的高中，那么你可能不符合一般学籍的申请条件。建议访问东义大学官方网站（https://ipsi.deu.ac.kr/main.do）获取最准确的信息。
+如果有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.04870756172839506</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 정원을 확인해야 합니다. 제공된 정보 중 나군 학생부교과(농어촌학생전형) - 정원외 모집단위 및 모집인원 표와 나군 실기/실적(경기실적우수자전형) 전형요소 반영비율 표를 살펴보겠습니다.
+1. **나군 학생부교과(농어촌학생전형) - 정원외**:
+   - 이 전형에서는 여러 학과가 모집되지만, 각 학과별로 정확한 모집인원은 표에서 명시되어 있지 않습니다.
+2. **나군 실기/실적(경기실적우수자전형)**:
+   - 경기지도학과는 7명을 모집하고 있습니다.
+다음으로, 나군 수능(일반학생전형) 및 나군 실기/실적(일반학생전형)의 모집인원을 확인해야 합니다. 그러나 해당 정보가 제공되지 않았습니다. 
+따라서, 현재 제공된 정보로는 정확한 결론을 내리기는 어렵지만, 경기지도학과는 7명을 모집하고 있으며, 다른 학과들의 모집인원은 표에서 명시되어 있지 않다는 점만 확인할 수 있습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 관련 공지사항을 참고하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.08410253811591605</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你是韩国人吗？你在询问关于东义大学（동의대학교）的学生部课程（학생부교과）农村学生选拔计划的申请资格问题。如果是这样，根据提供的信息，特殊目的高中（특수목적고등학교）的学生可以申请东义大学的学生部课程农村学生选拔计划。
+具体来说：
+- 特殊目的高中中的科学高中、国际高中和外语高中 不符合条件。
+- 艺术高中 和 体育高中 符合条件。
+- 技工高中（마이스터고）符合条件。
+所以，如果你是艺术高中或体育高中的学生，则可以申请东义大学的学生部课程农村学生选拔计划。如果是科学高中、国际高中或外语高中的学生则不符合申请资格。
+如果有其他问题或需要进一步的信息，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.1640254955850535</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 정확한 합격자 평균 성적 정보가 제공된 표에서 확인할 수 없습니다. 현재 제공된 데이터는 전반적인 수능 성적 분포와 지원자의 경쟁률, 모집인원 등에 대한 정보만을 포함하고 있습니다.
+특정 학과의 합격자 평균 성적을 알고 싶으시다면, 동의대학교 입학처 웹사이트나 해당 학과의 공지사항을 확인해 보시는 것이 가장 정확한 방법입니다. 또한, 입학처에 직접 문의하시면 최신 정보를 얻을 수 있습니다.
+만약 표에서 제공된 정보를 바탕으로 추론해야 한다면, 전반적인 수능 4개 영역 (국어, 수학, 외국어, 과학)의 평균 표준 변환 점수와 학업역량 평가 영역의 점수를 참고할 수 있습니다. 그러나 이는 특정 합격자들의 평균 성적을 대표하는 것은 아닙니다.
+추가 정보를 원하시면, 동의대학교 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 방문하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.1359488440563418</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 정확한 최초합격자 평균 성적 정보가 제공된 표에서 확인할 수 없습니다. 주어진 표들은 다른 학과와 전형 유형에 대한 정보만을 포함하고 있습니다.
+소프트웨어공학부는 "창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)"에서 분리된 학과로 변경되었으므로, 관련 표를 찾아보아야 합니다. 그러나 현재 제공된 정보에서는 해당 학과의 최초합격자 평균 성적을 확인할 수 없습니다.
+추가적인 정보를 얻기 위해서는 동의대학교 입학관리 홈페이지나 관계부서에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.1818527493010252</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 합격자는 홈페이지를 통해 최초합격자부터 충원합격자까지 다음과 같이 발표됩니다:
+1. **최초합격자**: 합격자 발표일에 따라 각 모집단위별로 홈페이지를 통해 실시됩니다.
+2. **충원합격자**: 
+   - 1차 충원: 2024년 2월 15일(목)
+   - 2차 충원: 2024년 2월 16일(금)
+   - 3차 충원: 2024년 2월 17일(토)
+지원자는 이 기간 내에 합격 여부를 반드시 확인해야 합니다. 또한, 충원합격자 발표 기간 동안 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우에도 충원합격이 되었으나 등록 의사가 없는 것으로 간주될 수 있으므로 주의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.3045852575361361</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>면접은 개별적으로 예약되어 이루어집니다. 일반적으로 면접 일정은 서류 심사 후에 안내됩니다. 따라서 정확한 날짜와 시간을 알기 위해서는 먼저 서류를 제출하고, 이후 입학관리팀으로부터 면접 일정이 공지될 것입니다.
+면접 신청 및 관련 정보는 다음과 같이 확인하실 수 있습니다:
+- 동의대학교 입학관리팀 홈페이지
+- https://ipsi.deu.ac.kr/main.do
+추가적인 질문이나 자세한 안내가 필요하시다면 해당 웹사이트를 참조하거나 직접 입학관리팀에 문의해 보세요.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.04707112970711296</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 한의예과는 수능최저기준이 없습니다. 하지만, 한의예과의 경우 수능 반영 영역 및 가산점에 대한 특별한 기준이 있습니다.
+수능 반영 영역 및 가산점:
+- 국어(화법과작문 또는 언어와매체) 25%
+- 수학 (미적분 또는 기하) 25%
+- 영어 25%
+- 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) 25%
+특히, 수학은 미적분 또는 기하 중 응시한 영역에 따라 가산점이 주어집니다.
+따라서, 한의예과는 수능 최저 점수 기준 없음에도 불구하고 수능 성적이 중요한 평가 요소로 작용합니다.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.04724966696269982</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 정시모집에서는 일반적으로 수능 최저학력 기준을 적용하지 않습니다. 지원자의 학력이 대학 수학능력에 현저히 미달된 경우 입학을 허가하지 않을 수도 있지만, 명확한 수능 최저 점수 기준은 공지되어 있지 않아 보입니다.
+만약 특정 모집단위에서 수능 최저학력기준이 적용된다면, 해당 정보는 입학 안내 홈페이지나 정시모집요강을 통해 별도로 공고될 것입니다. 지원자는 이러한 내용을 반드시 확인해야 합니다.
+관련된 유의사항은 다음과 같습니다:
+- 지원자의 학력이 대학 수학능력에 현저히 미달된 경우 입학을 허가하지 않을 수도 있습니다.
+- 정시모집 전형요강과 입학 안내 홈페이지를 참조하여 최신 정보를 확인해야 합니다.
+따라서, 정확한 답변을 위해서는 동의대학교 공식 입학 안내 홈페이지(https://ipsi.deu.ac.kr/main.do)를 방문하여 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.03417027938342967</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 충원합격자를 발표합니다. 특히, 3차 이후의 충원합격자는 전화 연락 두 번 이상 실패한 경우에도 충원합격이 되었으나 등록 의사가 없는 것으로 간주되기 때문에 이 기간 동안 전화를 받지 않으면 불리할 수 있습니다.
+관련 내용은 다음과 같습니다:
+- **2024년 2월 15일(목)~2024년 2월 20일(화)**: 3차 이후 충원합격자 발표 기간입니다.
+- 이 기간 동안 전화 연락 두 번 이상 실패한 경우, 충원합격이 되었으나 등록 의사가 없는 것으로 간주됩니다.
+따라서 지원자는 이 기간 동안 전화를 받지 않으면 불이익을 입을 수 있으므로 주의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.3150722708197266</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 추가합격자를 발표합니다. 
+발표 일정은 다음과 같습니다:
+- 2024. 02. 14.(수) 09:00 - 충원 합격자 1차 (인터넷) 발표
+- 2024. 02. 15.(목) 09:00 - 충원 합격자 2차 (인터넷) 발표
+- 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+이 중 2월 15일(목)에 진행되는 1차와 2차의 추가합격자는 인터넷을 통해 발표됩니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.3479923489901141</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2024학년도 동안, 모집인원 미달 시 추가모집이 진행될 수 있습니다. 특히:
+1. 정시 모집에서 모집인원 미달 시, 수시 모집에 등록한 지원자의 결원을 이월하여 추가로 합격자를 선발할 수 있습니다.
+2. &lt;나&gt;군의 일부 전형(학생부종합(평생학습자전형), 학생부종합(성인학습자(정원내)전형), 학생부종합(성인학습자(정원외)전형), 학생부종합(재직자전형), 학생부종합(조기취업형계약학과전형))의 결원은 정시 &lt;나&gt;군으로 이월하여 선발할 수 있습니다.
+추가모집이 진행될 경우, 해당 모집단위의 최초합격자 및 충원합격자의 발표 일정과 등록금 납부 기간 등을 반드시 확인해야 합니다. 추가모집에 대한 자세한 내용은 동의대학교 입학관리 홈페이지를 통해 공고됩니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.1552468142328915</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학입학전형의 하나로, 주요 특징과 관련 정보는 다음과 같습니다:
+1. 지원 자격:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상인 재직자
+2. 지원 자격 증빙 서류:
+   - 고교 학교생활기록부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+   - 검정고시 합격증서 또는 성적증명서
+   - 외국고교 졸업(예정)자: 공증받은 졸업증명서, 성적증명서 등
+3. 서류 제출 기간:
+   - 2024년 1월 3일 (수) ~ 1월 12일 (금) 17:00까지 도착분에 한함
+   - 제출 장소: 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+4. 서류제출 여부 확인:
+   - 홈페이지에서 확인 가능하며, 반드시 본인의 서류제출 여부를 확인해야 함
+   - 미제출 또는 미확인으로 인한 불이익은 전적으로 지원자 본인에게 있습니다.
+5. 평가 요소 및 비율:
+   - 학생부종합(평생학습자전형): 서류 70%, 면접 30%
+6. 전형요소 반영비율:
+   - 서류: 70%
+   - 면접: 30%
+7. 추가 정보:
+   - 지원 자격 증빙서류는 2024년 1월 1일 이후 발급된 것으로 제출해야 함
+   - 발급 방법은 '29페이지 [인터넷 발급서류 안내]'를 참조할 것
+이러한 특징들을 종합하여 평생학습자전형을 이해하고 준비할 수 있습니다. 자세한 내용이나 추가 질문이 있으시면 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.4176129856704331</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>2024년 나군 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+이러한 지원 자격을 갖춘 자는 해당 전형에 지원할 수 있습니다.
+추가 정보:
+- 지원자는 고등학교에서 이수한 교과 과목의 성적을 평생학습자전형 서류평가에 반영받습니다.
+- 최종 등록자 중 고교 졸업예정자는 2024년 2월 16일까지 졸업증명서를 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.2557046521347737</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀으로 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.1675675675675676</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+1. **실기종목**:
+   - 제자리 멀리뛰기 (240점)
+   - 메디신볼 던지기 (243점)
+   - Z-런 (230점)
+2. **필수 준비사항**:
+   - 운동복 및 운동화를 착용해야 합니다.
+   - 스파이크나 축구화 등 특수화는 불가능하며, 신발바닥에 이물질 가칠 금지입니다.
+3. **반칙 사항**:
+   - 각 실기종목별 2회 반칙 시 최저점수를 부여합니다.
+   - 기권한 경우 (응급환자 포함) 해당 종목에 최저점을 부여받습니다.
+실기고사는 이러한 준비와 주의사항을 지키면서 진행해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.03735138915379237</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의하시기 바랍니다.
+따라서, 수시 충원합격자 발표 시에는 전화로 통보는 이루어지지 않으며, 지원자는 반드시 홈페이지를 통해 합격 여부를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.3829228622617052</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 정확한 수시모집 결과에 대한 정보가 제공된 문서에서 직접적으로 확인할 수 없습니다. 해당 학과에 대한 모집요강이나 전형일정, 모집인원 등은 포함되어 있지만, 실제 지원자 수와 합격자 명단 등의 구체적인 수시모집 결과는 포함되어 있지 않습니다.
+문서에서는 경찰행정학과가 상경대학 인문사회 계열에 속해 있으며, 정원 내에서 모집되는 것을 확인할 수 있습니다. 하지만 최종 합격자 명단이나 지원자의 수 등은 포함되어 있지 않아 2023년도의 실제 수시모집 결과를 파악하기 위해서는 동 대학 입학처나 관련 홈페이지 등을 통해 확인해야 합니다.
+만약 더 구체적인 정보가 필요하다면, https://ipsi.deu.ac.kr/main.do 웹사이트를 방문하여 최신 정보를 확인하거나, 해당 학과의 입학办公室可以提供更多详细信息，包括2023年实际的招生结果。但是根据提供的文档内容，我们只能确定该专业属于商学和社会科学学院，并且是限额招生。
+如果您需要更具体的信息，建议访问学校官网（https://ipsi.deu.ac.kr/main.do）或直接联系相关部门获取最新数据。</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.1542616854680862</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 동일한 정보를 바탕으로, 정시 모집에서 수능을 응시하지 않고도 일부 전형에 지원이 가능합니다. 
+1. **학생부종합전형**: 이는 수능 성적을 요구하지 않으며, 학생부와 면접 등을 통해 평가됩니다.
+2. **성인학습자(정원내/외)전형**: 이 전형도 수능 응시 여부에 관계없이 지원 가능합니다.
+3. **재직자전형**: 이 역시 수능을 응시하지 않아도 지원할 수 있습니다.
+그러나 대부분의 일반학생전형은 수능 성적을 필수로 요구하며, 수능을 응시하지 않은 경우 해당 전형에 지원이 불가능합니다. 
+따라서 정시 모집에서 수능을 응시하지 않아도 지원 가능한 전형은 학생부종합전형, 성인학습자전형, 재직자전형 등이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.06926664228237014</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에 대한 정보를 바탕으로 답변 드리겠습니다.
+현재 제공된 정보로는 고등학교 졸업 후 10년이 지났다고 하더라도, 일반적으로 정시모집은 고등학교 졸업생을 대상으로 합니다. 따라서 고등학교 졸업한지 10년이 지난 분의 경우, 정시모집에 지원하기 위해서는 특별한 조건이나 예외 사항이 있는지 확인해야 합니다.
+특히, 동의대학교의 경우 다음과 같은 유형들이 있습니다:
+1. **평생학습자전형**: 이 전형은 고등학교 졸업(예정)자 또는 법령에 의한 동등학력 소지자로서 만 30세 이상인 자를 대상으로 합니다.
+2. **성인학습자전형 (정원내, 정원외)**: 이 전형도 고등학교 졸업(예정)자 또는 법령에 의한 동등학력 소지자로서 만 30세 이상인 자를 대상으로 합니다.
+3. **재직자전형**: 이 전형은 「고등교육법 시행령」 제29조 제2항 제14호 '다'목에 해당하는 재직자를 대상으로 하며, 재직기간이 3년 이상이어야 합니다.
+따라서 고등학교 졸업한지 10년이 지났다면, 위의 유형 중 적합한 전형을 찾아보시는 것이 좋습니다. 특히 **평생학습자전형**이나 **성인학습자전형**은 만 30세 이상인 분에게 특별히 지원할 수 있는 기회가 있습니다.
+추가적으로, 동의대학교 입학 홈페이지나 학교 관계자와 상담하여 최신 정보와 자격 요건을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.08944984243697478</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 주요 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+2. **원서접수(인터넷)**:
+   - 접수 기간: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토) 마감일 18시까지
+   - 접수 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 제출 기간: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금) 마감일 17시까지 도착
+   - 서류 제출 대상: 일부 모집단위에 따라 다르며, 홈페이지에서 확인 가능
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과 태권도학과: 2024년 1월 16일 (화)
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과: 2024년 1월 17일 (수)
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - 충원 합격자 발표 및 등록: 
+     - 1차: 2024년 2월 14일 (수) 9시
+     - 2차: 2024년 2월 15일 (목) 9시
+   - 충원 합격자 발표 및 등록 이후: 2024년 2월 15일 (목) 19시 ~ 2024년 2월 20일 (화) 18시까지
+7. **등록금 납부**:
+   - 지정 기간 내에 등록금을 납부하지 않으면 입학 포기로 간주됩니다.
+이 일정은 일반적으로 동의대학교 정시 모집의 주요 단계를 포함하며, 각 단계별 자세한 내용과 유의사항은 공식 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.4765344191136027</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수 (인터넷)**:
+   - 접수 기간: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토) 마감일 18시까지
+   - 접수 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 제출 기간: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금) 마감일 17시까지 도착
+   - 서류 제출 대상: 원서 접수 시 필요로 하는 서류가 있는 경우
+4. **실기고사**:
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과: 2024년 1월 16일 (화)
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과: 2024년 1월 17일 (수)
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+     - 홈페이지에서 개별 조회 가능
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화) (은행마감시간 내)
+6. **충원 합격자 발표 및 등록**:
+   - 1차 충원 합격자 발표: 2024년 2월 14일 (수) 9시
+     - 홈페이지에서 개별 조회 가능
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 1차 충원 합격자 등록: 2024년 2월 14일 (수) 9시 ~ 16시
+   - 2차 충원 합격자 발표: 2024년 2월 15일 (목) 9시
+     - 홈페이지에서 개별 조회 가능
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 2차 충원 합격자 등록: 2024년 2월 15일 (목) 9시 ~ 16시
+   - 3차 이후 충원 합격자 발표 및 등록: 2024년 2월 15일 (목) 19시 ~ 2024년 2월 20일 (화) 18시까지
+7. **등록금 환불 신청**:
+   - 기간: 2024년 2월 14일 (수) ~ 2024년 2월 20일 (화) 12시까지
+   - 절차: 입학안내 홈페이지에서 온라인으로 신청
+이 일정은 일반적으로 동의대학교 정시 모집의 주요 단계를 포함하며, 각 단계별로 세부적인 안내가 제공됩니다. 지원자는 이 일정을 참고하여 원서접수와 서류 제출 등 필요한 절차를 체크리스트 형태로 관리하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.4168259031741522</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능을 미응시한 학생도 지원할 수 있는 전형으로는 `학생부종합(조기취업형계약학과전형)`이 있습니다. 이 전형은 면접고사와 서류 평가를 통해 선발되며, 수능 성적에 대한 요구사항이 없으므로 수능 미응시자도 지원 가능합니다.
+추가적으로, `학생부종합(성인학습자(정원내·외)전형)`과 `학생부종합(평생학습자전형)` 등에서도 수능 성적에 대한 요구사항이 없거나 가산점만 부여되는 경우가 있으나, 이들 전형은 주로 재직자 또는 평생 학습자를 대상으로 하므로 일반적으로 수능 미응시자의 지원 가능성이 낮습니다.
+따라서, 주요하게 고려할 수 있는 전형은 `학생부종합(조기취업형계약학과전형)`입니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.1245888157894737</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024년도 수시 모집 일정을 보면, 충원 합격 과정이 다음과 같이 진행됩니다:
+1. 최초합격자 발표 및 등록 (2024. 02. 02 ~ 02. 13)
+2. 1차 충원 합격자 발표 및 등록 (2024. 02. 14 ~ 16)
+3. 2차 충원 합격자 발표 및 등록 (2024. 02. 15 ~ 16)
+따라서 전년도에 전자공학과의 충원 합격은 최소 3차까지 이루어졌습니다.
+이 정보는 현재 제공된 2024년도 수시 모집 일정을 기반으로 추론한 것입니다. 실제 전년도의 경우와 다르게 진행될 수도 있으므로, 공식 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.1787210031347962</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>1588-8988
+이 정보는 "인터넷접수와 관련한 문의사항은 아래의 연락처를 통해 문의하시기 바랍니다. (주)유웨이어플라이 : 1588-8988(http://www.uwayapply.com)"라는 문구에서 얻었습니다. 동의대학교 입학처의 직접적인 전화번호는 제공되지 않았지만, 원서접수와 관련된 문의사항은 (주)유웨이어플라이로 하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.09898753894080996</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다. 따라서 지원자는 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.7930464100027645</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정 모두 농어촌 학생부교과(농어촌학생전형)로 지원하려면 다음과 같은 서류를 제출해야 합니다:
+### 6년 과정:
+- 지원자 본인의 가족관계증명서 (1부)
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 (1부) - 교육기관에서 발급 가능
+- 고등학교 학교생활기록부 (1부) - 학생부 온라인 제공 비대상교 및 미동의자 경우, 부모가 사망한 경우에는 사망한 부 또는 모의 기본증명서 1부(기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출해야 합니다. 부모가 이혼한 경우에는 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가로 제출해야 합니다.
+### 12년 과정:
+- 지원자 본인의 주민등록초본 (1부)
+- 초등학교 학교생활기록부 (1부)
+- 중학교 학교생활기록부 (1부)
+- 고등학교 학교생활기록부 (1부) - 학생부 온라인 제공 비대상교 및 미동의자 경우
+이러한 서류들은 2024년 1월 3일(수)부터 1월 12일(금)까지 제출해야 하며, 제출장소는 (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀입니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.5802795015922442</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 자격을 갖춘 경우, 제출해야 할 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부 
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+  ※ 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이러한 서류는 2024년 1월 3일부터 1월 12일까지 제출해야 하며, (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀으로 제출해야 합니다.
+추가적으로 최종 등록자 중 고교 졸업예정자는 졸업 이후에도 지원 자격 증빙서류를 2024년 2월 16일까지 추가로 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.4654997390471493</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서는 저소득 기회균등 전형을 신설하지 않았습니다. 따라서, 현재 정보로는 정시모집에서 저소득 기회균등 전형이 선발되지 않는 것으로 보입니다.
+만약 추가적인 변경사항이나 새로운 정책이 도입되었다면 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 확인하시거나 대학 입학처에 문의하시는 것이 가장 정확한 정보를 얻는 방법일 것입니다.</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.1158234062334367</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능의 탐구 영역에서 두 과목을 평균산출할 때, 절차는 다음과 같습니다:
+1. **각 과목의 등급점수를 구합니다**: 
+   - 예를 들어, 물리Ⅰ이 2등급이고 화학Ⅰ이 3등급이라면, 각각의 등급점수는 다음과 같습니다.
+     - 물리Ⅰ: 131
+     - 화학Ⅰ: 139
+2. **두 과목의 점수를 평균산출합니다**:
+   - (131 + 139) / 2 = 135
+3. **평균점수가 등급으로 변환됩니다**: 
+   - 이 경우, 135는 4등급에 해당합니다.
+따라서, 만약 두 과목의 평균이 2.5등급이라면, 절사하여 2등급으로 처리됩니다. 
+**절사**: 2.5를 2로 변환하는 것을 의미합니다. 수능 점수는 정수 등급으로 표현되므로, 2.5는 3등급보다 낮으므로 2등급으로 처리됩니다.
+따라서, 두 과목의 평균이 2.5등급이라면, **절사하여 2등급**으로 보는 것이 맞습니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.05343082114735658</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024년 동일한 대학의 정시 모집에서, 충원 합격자는 다음과 같이 발표됩니다:
+1. 1차 충원 합격자 발표: 2024년 2월 14일(수) 09:00
+2. 2차 충원 합격자 발표: 2024년 2월 15일(목) 09:00
+이후 3차 이후의 충원 합격자는 개별 전화 통보를 통해 안내됩니다.
+따라서 정시 충원 합격자는 총 3차까지 발표가 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.3679367897727273</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024학년도 동국대학교의 정시 모집에서 e비즈니스학과의 경우, 일반학생전형을 통해 최종합격이 되었다면 추가로 정시 전형으로는 합격하기 어렵습니다. 
+정시모집은 이미 수능 성적이 반영된 정원내/외 모집단위에 따라 선발되며, 이전에 이미 해당 학과의 정원내 또는 정원외로 최종합격한 경우 추가로 정시로 합격하는 것은 불가능합니다.
+따라서 e비즈니스학과 수능 성적이 4.6인 지원자는:
+1. 이미 해당 학과에 정원내/외로 최종합격한 경우: 정시로 추가로 합격할 수 없습니다.
+2. 아직 최종합격하지 않은 경우: 정시모집으로 추가로 합격하려면, 다른 모집단위에서 지원해야 합니다.
+추가 정보를 원하시거나, 다른 질문이 있으시다면 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.1807731577124706</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 e비즈니스학과의 최초합격 가능성을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **수능 등급 평균 및 표준편차**: e비즈니스학과의 수능 등급 평균은 7.0이며, 표준편차는 1.2입니다. 이는 상당히 높은 수준을 나타냅니다.
+2. **등급 분포**: 평균이 7.0이고 표준편차가 1.2라는 것은 등급의 분포가 넓다는 것을 의미합니다. 즉, 최고 점수와 최저 점수가 큰 범위를 가진다는 것입니다.
+3. **개별 학생의 성적**: 정시 등급이 5.3인 경우, 이는 평균보다 약간 낮은 수준입니다. 그러나 표준편차가 1.2라는 것은 최대한 낮은 점수도 4.0 이상일 가능성이 높습니다.
+4. **합격선 예측**: 합격선을 정확히 예측하기는 어렵지만, 평균이 7.0이고 표준편차가 1.2인 경우, 최소 6.5~7.0 정도의 등급이 필요할 것으로 추정됩니다.
+따라서, 정시 등급 5.3은 e비즈니스학과의 최초합격 가능성은 낮지만, 아직 불가능한 것은 아닙니다. 합격선이 어느 정도인지 더 자세히 알고 싶다면, 동의대학교 입학 홈페이지나 관련 공지사항을 확인하는 것이 좋습니다.
+추천: 
+- 동의대학교 입학 홈페이지를 방문하여 최신 정보를 확인합니다.
+- 전형요소 반영비율과 합격선에 대한 추가 정보를 얻으세요.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.1529725859672863</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 e비즈니스학과는 학생부종합전형으로 모집됩니다. 따라서, e비즈니스학과에 지원하려는 경우 다음과 같은 절차와 평가 기준을 고려해야 합니다:
+1. **지원 자격**: 
+   - 2024년 3월 1일 기준 총 재직기간이 3년 이상인 재직자여야 합니다.
+   - 지원자격 증빙서류를 제출해야 합니다.
+2. **전형 요소 반영 비율**:
+   - 서류: 70%
+   - 면접: 30%
+3. **면접평가 방법**:
+   - 개별면접
+   - 1인당 10분 이내
+   - 입학사정관 2인이 평가위원으로 참여하여 수험생을 평가합니다.
+4. **면접평가 질문 공통문항**:
+   - 지원동기 및 학업계획
+   - 학업역량
+   - 전공적합성
+5. **동점자 처리 기준**:
+   - 면접고사 성적 상위자 우선
+   - 서류평가 공동체역량 영역 성적 상위자 우선
+   - 서류평가 전공적합성 영역 성적 상위자 우선
+이정도의 정보만으로는 정확한 예비합격 가능성 판단이 어렵습니다. e비즈니스학과에 지원하려면 다음과 같은 절차를 따르세요:
+1. **지원 자격 증빙서류**:
+   - 고교 학교생활기록부
+   - 4대 보험 가입증명서 (창업자나 자영업자는 사업자등록증명원 또는 폐업사실증명원)
+   - 재직 경력 증명서
+2. **면접 준비**:
+   - 지원동기와 학업계획을 명확히 준비
+   - 학업역량과 전공적합성에 대한 경험 및 성취를 준비
+3. **전형평가 영역별 세부 평가 기준**:
+   - 공동체역량, 학업역량, 전공적합성을 잘 보여줄 수 있도록 서류를 준비
+4. **면접 질문 공통문항에 대한 답변 준비**:
+   - 지원동기 및 학업계획
+   - 학업역량 관련 경험
+   - 전공적합성 관련 경험
+이런 절차와 준비를 통해 최대한의 기회를 잡을 수 있습니다. 하지만, 정확한 예비합격 가능성 판단은 실제 서류 평가 및 면접 성적이 결정되므로, 지원자 본인의 실력과 준비 상태에 따라 달라질 수 있습니다.
+추가 정보나 자세한 질문이 있으시다면, 동의대학교 입학관리팀에 문의하시거나 공식 홈페이지를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.05683970590568672</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 충분히 합격할 수 있는 점수일 것입니다. 하지만 최종 합격 여부는 여러 요소가 결합되어 결정되므로 단순한 평균점수만으로 판단하기 어렵습니다.
+간호학과의 경우 다음과 같은 특징이 있습니다:
+1. 모집인원: 22명
+2. 지원 인원: 37명 (경쟁률이 높음)
+3. 최저 합격 점수: 평균적으로 400점 이상
+당신의 성적(3.44)은 3등급에 해당하며, 간호학과에서는 수능 영역별 등급을 고려합니다.
+추천되는 조치:
+1. **학생부 교과성적**: 학생부 교과성적이 높다면 이 부분에서 유리할 수 있습니다.
+2. **면접 성적**: 면접에서도 좋은 점수를 받는 것이 중요합니다.
+3. **추가 자격 요건**: 간호학과에서는 특정 자격증이나 경험이 요구될 수도 있으니 확인해보세요.
+결론적으로, 3.44의 성적만으로는 확실한 합격을 보장할 수 없습니다. 하지만 적절히 준비하고 추가적인 평가 요소를 잘 활용한다면 합격 가능성은 있습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.1132246376811595</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 수능 최종 등록자 정보를 보면, 평균 경쟁률이 매우 높습니다 (6.59), 그리고 지원 인원도 많아 (145명). 또한, 해당 학과의 모집인원은 22명입니다.
+수능 점수에 대한 표준 변환 점수 평균을 보면:
+- 국어 + 수학 + 탐구(2개) (가산점 포함): 357.63 / 5.37
+- 영어 등급: 1.86 / 0.75
+- 수능 4개 영역 등급: 3.12 / 0.29
+당신의 성적이 2.52이라면, 이는 표준 변환 점수로 보면 약 3.12보다 낮습니다. 그러나 간호학과의 최종 합격 가능성은 여러 요인에 따라 달라질 수 있습니다:
+1. **경쟁률**: 매우 높기 때문에 경쟁이 치열합니다.
+2. **서류 평가 결과**: 서류평가에서 좋은 성적을 받았다면 이점이 있을 수 있습니다.
+3. **면접 성적**: 면접에서도 좋은 점수를 받는 것이 중요합니다.
+따라서, 단순히 수능 성적으로 판단하기보다는 총합격 절차 (서류 평가 + 면접)에서의 전체적인 평점을 고려해야 합니다. 
+만약 당신이 서류평가와 면접에서도 좋은 결과를 얻었다면, 최종 합격 가능성은 있을 수 있습니다. 하지만 현재 정보로는 낮은 점수로 인해 경쟁이 치열한 간호학과에서 최종 합격하기는 어렵다고 볼 수 있습니다.
+추가적으로, 동의대학교 입학 홈페이지나 관계부서에 문의하여 자세한 상황을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.1183365968566286</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 성적은 중간적인 점수로, 간호학과에 입학하기 위해서는 여러 요소를 고려해야 합니다.
+1. **학교와 학과 특성**: 동의대학교 간호학과의 모집요강을 확인해 보세요. 일부 대학에서는 전공적합성을 중시하거나, 특정 과목 성적이 요구될 수 있습니다.
+2. **전형방법**: 정시모집은 주로 수능 점수를 기준으로 합니다. 하지만 간호학과는 종종 학업역량이나 전공적합성 등을 평가하기 때문에, 면접이나 서류평가에서도 좋은 성적을 보여줘야 할 수 있습니다.
+3. **전형요소 반영비율**: 일부 전형에서는 학생부 교과성적이 중요한 역할을 합니다. 3.7의 성적은 학업역량을 잘 보여줄 수 있지만, 다른 요소들과 비교해 볼 필요가 있습니다.
+4. **경쟁률**: 현재 간호학과의 경쟁률을 확인하고, 자신의 점수와 평균 점수를 비교해보세요. 경쟁률이 높다면 합격 가능성은 낮아질 수 있습니다.
+5. **추천서나 자기소개서 등 추가 자료**: 일부 전형에서는 추천서나 자기소개서 등을 요구할 수 있으므로, 이에 대한 준비도 필요합니다.
+6. **면접 성적**: 면접에서도 좋은 평가를 받는 것이 중요합니다. 면접 준비를 철저히 해야 합니다.
+결론적으로 3.7의 성적만으로는 확실한 합격을 보장할 수 없습니다. 하지만 적절한 지원 자료와 면접 준비를 통해 합격 가능성은 높일 수 있습니다. 동의대학교의 정시모집 전형요강과 간호학과의 모집요강을 꼭 확인하시고, 필요한 추가 자료들을 준비해보세요.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.07460996246347219</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서는 국어, 수학, 영어, 한국사 등급을 기준으로 합격자를 선발합니다. 간호학과는 보건의료정보관리교육인증을 받은 과정이므로, 해당 과목의 등급도 고려될 것입니다.
+2024년 동의대학교 간호학과 정시 모집에 대한 지원 자격 기준은 다음과 같습니다:
+1. **국어** : 3등급 이상
+2. **수학** : 3등급 이상
+3. **영어** : 3등급 이상
+4. **한국사** : 3등급 이상
+당신의 국어 등급이 2.58이라면, 이는 3등급 미만입니다. 따라서 간호학과에 정시로 합격하기 위해서는 국어 등급을 높여야 합니다.
+추가적으로, 수능 4개 영역(국어, 수학, 영어, 한국사)의 평균 등급이 3등급 이상이어야 하며, 이 중 한 과목은 2등급 이상이어야 합니다. 
+따라서, 현재 국어 등급이 2.58인 상태에서는 간호학과에 정시로 합격하기 어렵습니다. 국어 등급을 높이는 것이 중요합니다.
+만약 가능하다면, 추가 공부를 통해 국어 등급을 향상시키는 것이 가장 좋은 방법입니다. 또한, 다른 과목의 등급도 최대한 높여서 평균 등급을 3등급 이상으로 유지하는 것이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.1056784303182475</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 답변이 어렵습니다. 게임공학과의 모집인원과 지원 인원, 경쟁률 등을 고려해야 합니다.
+현재 게임공학과의 상황은 다음과 같습니다:
+- 모집인원: 3명
+- 지원 인원: 16명
+- 경쟁률: 약 5.33대 1
+경쟁률이 높지만, 아직 모집인원보다 많은 지원자가 있으므로 붙을 가능성은 있습니다.
+추가적으로 고려해야 할 사항:
+1. 최종합격자 발표 시점과 기간
+2. 충원 절차와 가능성이 있는지
+3. 학교의 정시모집 경쟁률 및 모집잔여 인원 상황
+따라서, 붙을 수는 있지만 확실한 답변은 합격자 발표일에 확인해야 합니다. 최종 결정을 내리기 전까지는 기회를 포기하지 않는 것이 좋습니다.
+추가 정보나 변경사항이 있으시다면, 동의대학교 입학관리 홈페이지나 관련 연락처를 통해 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.1033281004709576</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 현재 한국어와 수학, 영어 등급이 각각 4등급, 1등급, 6등급으로 변환된 점수를 의미하는 것으로 보입니다.
+동의대학교 게임공학과는 일반적으로 수능 성적을 중점적으로 평가하며, 게임공학과는 공학 계열에 속합니다. 따라서 수능 과목 중 국어(화법과작문 또는 언어와매체), 수학(확률과통계 또는 미적분 또는 기하), 영어 등급을 주요 평가 항목으로 삼습니다.
+4등급의 국어, 1등급의 수학, 6등급의 영어는 다음과 같은 점수를 반영합니다:
+- 국어: 25% 가중치
+- 수학: 25% 가중치 (미적분 또는 기하 응시자에 한해 10% 추가)
+- 영어: 25%
+이러한 성적이 게임공학과의 합격 기준을 충족하는지 판단하기 위해서는:
+1. **최근 동의대학교 게임공학과의 합격 점수를 확인해야 합니다:** 이 정보가 없으면 정확한 예측은 어렵습니다.
+2. **개인 성적과 평균 성적 간의 차이를 고려해야 합니다:** 개인 성적이 평균보다 높다면 더 좋은 위치에 있을 수 있습니다.
+3. **전형별로 합격 기준이 다름을 인지해야 합니다:** 정시, 실기/실적, 학생부종합 등 다양한 전형이 있으므로 해당 전형의 기준을 확인해야 합니다.
+4. **추가 합격 가능성은 낮을 것으로 예상됩니다:** 4등급 국어와 6등급 영어는 상대적으로 낮은 점수입니다. 게임공학과는 수학 성적이 중요하므로, 수학 성적에 따라 추가 합격 가능성은 달라질 수 있습니다.
+따라서, 정확한 예측을 위해서는 동의대학교 게임공학과의 최근 합격 기준 점수를 확인해야 합니다. 일반적으로 4등급 국어와 6등급 영어로는 추가 합격 가능성은 낮을 것으로 보입니다.
+추가 정보:
+- 수능 성적 반영 방식은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조해야 합니다.
+- 동의대학교 게임공학과의 최저합격선을 확인하여 개인 성적이 어느 위치에 있는지 판단해야 합니다.
+따라서, 정확한 답변을 위해서는 동의대학교 게임공학과의 최근 합격 기준 점수를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.09988729844447043</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 경영정보학과에 지원하려면, 지원 자격과 성적이 충족되어야 합니다. 주요 점을 확인해보겠습니다:
+1. **성적 기준**: 경영정보학과는 일반적으로 국어, 수학, 영어 등급이 필요하며, 탐구 과목도 고려됩니다.
+2. **등급 기준**:
+   - 국어: 3.75 이상
+   - 수학: 3.00 이상 (일반학생전형)
+   - 영어: 4등급 이상
+3. **성적 평균**: 
+   - 국어 + 수학 + 탐구(2개)의 표준 변환 점수 합이 중요합니다.
+   - 평균 점수가 높아야 합니다.
+4. **경쟁률**: 경영정보학과는 인기 학과로, 경쟁률이 높을 수 있습니다.
+5. **최초등록자 선발 기준**:
+   - 최초합격자는 일반적으로 국어, 수학, 영어 등급 평균 상위자를 우선으로 선발합니다.
+   - 동점자가 발생할 경우, 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자 순으로 처리됩니다.
+주어진 정보만으로는 확실한 답변을 드리기 어렵습니다. 하지만 주요 성적 기준인 국어 3.75, 수학 3.00 이상, 영어 4등급 이상이 충족되어 있다면, 최초등록자로 선발될 가능성은 있습니다.
+추가적으로 확인해야 할 사항:
+- 탐구 과목의 성적
+- 다른 지원자의 성적과 경쟁률
+위 정보를 종합적으로 고려하여 지원 가능성을 판단하시길 바랍니다. 필요하다면, 동의대학교 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.08121680824655723</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2024학년도 동일계 전형에서 경영정보학과의 모집인원이 정해지기 전까지는 지원자의 성적만으로 결정하기 어렵습니다. 하지만 일반적으로 경영정보학과의 경우, 정시모집의 최저학력 기준은 수능 4개 영역(국어, 수학, 영어, 탐구) 중 상위 등급을 요구합니다.
+현재 주어진 정보로는:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균이 4.2입니다.
+- 이 점수가 경영정보학과의 정시 모집요강에서 요구하는 최저 기준을 충족하고 있는지 확인해야 합니다.
+일반적으로 경영정보학과는 수능 4개 영역 중 상위 등급을 요구하므로, 주어진 표준 변환 점수 평균이 4.2라면 대체로 적합할 가능성이 높습니다. 하지만 정확한 최저 기준은 동의대학교 입학 홈페이지나 모집요강에서 확인해야 합니다.
+따라서, 다음과 같은 단계를 따르는 것이 좋습니다:
+1. 동의대학교 공식 입학 홈페이지를 방문하여 2024학년도 경영정보학과 정시모집의 최저학력 기준을 확인합니다.
+2. 해당 정보와 주어진 성적(표준 변환 점수 평균 4.2)을 비교하여 결정합니다.
+만약 최저 기준이 더 높다면, 추가적인 준비나 다른 전형을 고려해볼 수도 있습니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.1212192766068379</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看东义大学2024年经营信息学部（一般学生类型）的录取标准。根据提供的数据表，我们可以看到一些相关信息：
+1. **招生人数和申请人数**：经营信息学部的招生人数为9人，申请人数为95人。
+2. **竞争比**：竞争比为10.56，意味着平均每个名额有超过10名学生竞争。
+根据这些数据，我们可以推断出该专业的录取分数线可能会相对较高。然而，具体是否能够被录取还需要参考学生的综合成绩和其他因素（如面试表现等）。
+**关键信息点**：
+- 经营信息学部的招生人数为9人。
+- 申请人数为95人。
+- 竞争比为10.56。
+**分析**：
+- 虽然你的学业成绩是5.33，但这个分数在所有科目中的表现如何？是否达到了该专业的录取标准？
+- 是否参加了面试或其他选拔环节？
+根据提供的信息，仅凭学业成绩无法确定你能否被录取。建议查看东义大学2024年招生简章中关于经营信息学部的具体录取要求，并参考往年的录取分数线和具体条件。
+如果你需要更准确的信息，可以访问东义大学的官方网站或直接联系学校的招生办公室获取详细资料。
+[更多详细信息请参阅东义大学官网](https://ipsi.deu.ac.kr/main.do)。</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.02103786816269285</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)에 대해 성적 3.33 정도로 최초등록자로 합격할 가능성은 낮습니다.
+다음은 이유와 참고사항입니다:
+1. **전형요소 반영비율**:
+   - 바이오응용공학부는 주로 수능성적이 반영됩니다.
+   - 2024년 전형요소 반영비율은 수능 100%입니다.
+2. **수능 성적 평균 및 경쟁률**:
+   - 바이오응용공학부의 최초합격자들의 수능성적 평균은 대체로 4.5 이상입니다.
+   - 예를 들어, 의생명공학과의 경우 평균 수능 성적이 4.57이나 3.82 등으로 높습니다.
+3. **경쟁률**:
+   - 바이오응용공학부는 인원이 많고 경쟁률이 높은 학과입니다.
+   - 예를 들어, 의생명공학과의 경우 모집인원 99명에 지원자가 238명으로 매우 높은 경쟁률을 보입니다.
+4. **추천**:
+   - 성적이 3.33이라면 다른 학과들을 고려해보는 것이 좋습니다.
+   - 수능 성적 외에도 전형요소(면접, 서류 등)를 잘 준비해야 합니다.
+   - 모집인원이 적은 학과나 경쟁률이 낮은 학과를 우선적으로 지원하는 것이 유리할 수 있습니다.
+따라서, 현재의 성적 3.33으로 바이오응용공학부 최초등록자로 합격하기는 어렵습니다. 다른 전형이나 학과를 고려해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.1545071272783923</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과에 지원하려면, 정시 등급 4.4는 충분한 점수일 것입니다. 하지만 최종 합격 가능성은 여러 요인에 따라 달라질 수 있습니다.
+1. **성적 평균**: 방사선학과의 모집인원과 지원자들의 성적이 중요합니다. 만약 해당 분야에서 많은 지원자가 높은 등급을 보유하고 있다면, 4.4는 약간 낮은 점수일 수 있습니다.
+2. **전형 요소**: 동의대학교에서는 학생부종합 전형과 실기/실적 전형 등을 통해 다양한 측면을 평가합니다. 성적 외에도 학업역량, 전공적합성 등이 중요한 역할을 합니다.
+3. **경쟁률**: 2024년의 정확한 경쟁률은 아직 공개되지 않았지만, 이전 연도와 비슷하거나 더 높아질 수 있습니다. 따라서 성적이 조금 낮더라도 다른 평가 요소를 잘 준비한다면 합격 가능성은 있습니다.
+4. **서류 및 면접**: 방사선학과는 실기/실적 전형을 포함하므로, 관련 경력이나 활동 증빙 서류가 중요합니다. 또한 면접에서도 전공에 대한 이해와 적합성을 평가받게 됩니다.
+5. **추천서 및 추천인**: 추천서나 추천인이 있다면 이는 긍정적인 요소로 작용할 수 있습니다.
+결론적으로, 4.4의 등급만으로는 확실한 합격을 보장하지는 못합니다. 하지만 성적 외에도 다양한 평가 요소를 잘 준비한다면 합격 가능성은 높아질 것입니다. 동의대학교 입학 홈페이지나 전화로 상세한 정보를 확인하시거나, 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.07370726945379723</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과 정시 모집에서 2.66이라는 평균 등급을 얻었다면, 이는 상대적으로 낮은 점수입니다.
+방사선학과는 보통 과학적 지식과 수리 능력이 요구되는 전공으로, 일반적으로 높은 등급을 기대합니다. 2024년의 경우, 방사선학과의 평균 등급은 3.75였습니다 (표에서 확인 가능). 따라서 2.66은 약간 낮은 편입니다.
+하지만 위험하다고 단정하기는 어렵습니다. 왜냐하면:
+1. **개인적인 성장과 노력**: 지원자의 개인적인 학업 경력, 진로 계획 등이 고려될 수 있습니다.
+2. **전형 요소의 다양성**: 동의대학교에서는 학생부 교과성적(30%), 출결(5%), 서류(실적) 65%를 반영하기 때문에, 다른 요소들이 좋은 점수를 보여주면 전체적으로 긍정적인 평가를 받을 수 있습니다.
+3. **모집인원**: 방사선학과의 모집 인원이 27명으로 적기 때문에, 경쟁률은 상대적으로 낮을 수 있습니다.
+따라서, 2.66이라는 점수는 약간 위험할 수 있지만, 전반적인 지원 자질과 동기부여가 충분히 강하다면 큰 문제가 되지 않을 것입니다. 
+추천 사항:
+- **학생부 성적 향상**: 학생부 교과성적을 높이는 노력을 기울일 필요가 있습니다.
+- **활동 증명서 제출**: 관련 활동이나 프로젝트를 통해 추가적인 경쟁력 있는 서류를 준비할 수 있습니다.
+결론적으로, 2.66은 약간 낮지만, 전반적인 지원 자질이 좋다면 충분히 합격 가능성을 가지고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.1005529808937236</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 농어촌학생전형에 대한 지원 자격과 평가 기준을 살펴보겠습니다.
+### 지원 자격:
+1. **6년 과정**: 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌(읍·면)지역에 거주한 자.
+2. **12년 과정**: 부모의 거주지와 상관없이 지원자 본인이 초·중·고등학교 전 교육과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자.
+### 제출서류:
+- **6년 과정**: 가족관계증명서, 주민등록초본, 중학교와 고등학교의 학교생활기록부.
+- **12년 과정**: 지원자 본인의 주민등록초본, 초·중·고등학교의 학교생활기록부.
+### 평가 기준:
+- **학업역량**: 수능 성적을 중심으로 평가합니다. 3.66이라는 GPA는 상당히 좋은 점수입니다.
+- **전공적합성**: 지원자의 학업 역량과 전공의 연관성을 고려합니다.
+### 결론:
+- **GPA 3.66**은 높은 평균 점수로, 경쟁률이 높을 수 있는 모집단위에서도 좋은 성적입니다.
+- **농어촌 학생 전형**: 이전에 언급한 지원 자격과 제출서류를 충족하고 있다면, 합격 가능성은 있습니다.
+### 참고사항:
+1. **경쟁률**: 2024학년도의 경쟁률을 확인하여 보시고, 평균 GPA와 비교해보세요.
+2. **추가 서류 제출**: 최종 등록자 중 고교 졸업예정자는 졸업 이후에 발급한 졸업증명서를 2024년 2월 16일까지 추가로 제출해야 합니다.
+### 조언:
+- **면접 준비**: 면접 평가 기준을 잘 이해하고, 지원 동기와 학업 계획을 명확하게 준비하세요.
+- **추가 정보 확인**: 입학관리 홈페이지를 통해 최신 정보를 확인하시고, 필요시 전화로 문의해보세요.
+이러한 점들을 종합적으로 고려하면, GPA 3.66은 좋은 성적으로 합격 가능성은 있습니다. 그러나 경쟁률과 지원자의 전체적인 자질을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.09827126237967379</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25위라는 순위가 매우 높은 위치입니다. 대부분의 경우, 예비후보자 중에서 최종 합격자가 선발되는 것은 매우 드뭅니다. 하지만 여전히 작은 가능성은 있습니다:
+1. 다른 지원자의 불이익 사유로 인해 기회가 생길 수 있습니다.
+2. 모집인원에 미달될 경우, 예비후보자 중에서 최종 합격자가 선발될 수도 있습니다.
+3. 입학 전형의 세부 조건이나 절차에 따라 변동이 있을 수 있으므로, 공식 발표를 기다리는 것이 좋습니다.
+최종 결정은 입학관리위원회가 내릴 것입니다. 따라서 현재로서는 낮은 확률이라고 판단하는 것이 맞을 것 같습니다. 하지만 최선을 다한 지원을 해두시는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.1314552341801477</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시모집에 대한 정보는 제공된 데이터에서 명확히 확인할 수 없습니다. 하지만 일반적으로 대학별 학과별 모집인원, 전형방법, 평균 성적 등을 고려하여 추정해볼 수 있습니다.
+1. **전형 방식**: 동의대학교 법경찰행정학부는 주로 수능 기반으로 정시모집을 진행합니다. 따라서 수능 점수와 학생부 교과성적이 중요하게 평가됩니다.
+2. **평균 성적**: 2023년도나 이전의 입학정원 및 최종합격자의 성적 분포를 참고하면 대략적인 안정권 범위를 파악할 수 있습니다. 예를 들어, 2023년도에 법경찰행정학부가 모집한 학생들의 평균 국어, 수학, 영어 등급을 확인해볼 수 있습니다.
+3. **예상 점수**: 일반적으로 안정권은 최종합격자의 상위 10-20%를 의미합니다. 예를 들어, 2023년도에 합격한 학생들의 평균 국어 95점, 수학 87점, 영어 84점을 기준으로 하면 이 점수대에서 안정적으로 합격할 가능성이 높습니다.
+4. **학생부 성적**: 법경찰행정학부는 학생부 교과성적이 중요하므로, 국어, 수학, 영어 외에 사회 과목 등도 고려해야 합니다.
+5. **추천 점수**: 안정적으로 합격하기 위해서는 최소 90점 이상의 국어, 85점 이상의 수학, 82점 이상의 영어를 목표로 설정하는 것이 좋습니다. 이외에도 학생부 교과성적을 고려하여 전체적인 평균 점수를 계산하면 됩니다.
+**추천 조치**:
+- **정보 확인**: 동의대학교 입학처 홈페이지나 입학사정관제 전형 안내서 등을 통해 2023년도 합격자 성적 분포를 확인합니다.
+- **대비 점수 계산**: 자신의 현재 성적을 기준으로 2023년도 합격자 평균 성적과 비교하여 대비점을 계산합니다.
+- **학습 계획 수립**: 필요한 부분에 대한 강화 계획을 세웁니다.
+**참고 링크**: [동의대학교 입학처 홈페이지](https://ipsi.deu.ac.kr/main.do)
+위 정보를 참고하시되, 최종 결정은 동의대학교 입학처에서 제공하는 공식 정보를 확인하시는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.1654951957769981</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>5.33이라는 점수를 가지고 동의대학교 보육가정상담학과(현재는 아동학과로 분류됨)에 합격할 확률을 판단하기 위해서는 몇 가지 정보가 필요합니다:
+1. **모집단위와 모집인원**: 해당 모집단위의 정원과 지원자의 등급이 어느 위치에 있는지 확인해야 합니다.
+2. **전형요소 및 반영비율**: 동의대학교의 학생부종합(조기취업형계약학과전형)의 전형요소와 반영비율을 확인해야 합니다. 이는 서류평가와 면접평가의 비중 등을 결정합니다.
+3. **등급 변환표준점수**: 수능 등급이 실제 점수로 변환되는 방법을 알아야 합니다. 동의대학교에서는 수능 등급에 따른 점수를 반영하는데, 이 점수가 합격선을 넘는지 확인해야 합니다.
+4. **최근 입학성적 분석**: 최근 몇 년간 해당 모집단위의 최종합격자의 성적이 어떻게 나왔는지를 참조하면 도움이 됩니다.
+5. **경쟁률**: 현재 지원자 수와 합격자를 비교하여 경쟁률을 파악해야 합니다.
+현재 주어진 정보만으로는 정확한 판단이 어렵습니다. 하지만 5.33이라는 등급은 상당히 높은 점수로, 대부분의 모집단위에서는 좋은 성적을 보여줍니다. 그러나 동의대학교의 경우 특정 학과나 전형에서 경쟁률이 매우 높을 수 있으므로, 최종합격 가능성을 판단하기 위해서는 위에 언급한 추가 정보가 필요합니다.
+추천되는 방법은:
+1. 동의대학교 입학 홈페이지를 참조하여 해당 모집단위의 정원과 지원자 수를 확인합니다.
+2. 최근 몇 년간의 합격선을 찾아보세요.
+3. 전형요소와 반영비율을 다시 한 번 확인합니다.
+이런 정보들을 종합적으로 고려하면 더 정확한 판단이 가능할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.09161830147289253</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>3차 충원합격 예비 12번으로 선발될 확률은 상당히 낮습니다. 일반적으로 대학의 충원 절차는 다음과 같습니다:
+1. 최초합격자 발표 후 등록금 납부를 통해 합격자가 결정됩니다.
+2. 최초합격자 중 등록하지 못한 경우, 1차 충원합격자를 선발합니다.
+3. 1차 충원합격자 중 등록하지 못한 경우, 2차 충원합격자를 선발합니다.
+4. 이 과정을 반복하여 최종 합격자를 결정합니다.
+예비 12번으로 선발될 가능성은 매우 낮습니다. 대학 측에서는 예비 순위를 기준으로 등록금 납부 여부를 확인하고, 이를 통해 합격자를 결정합니다. 따라서 이미 많은 학생들이 등록을 완료했거나, 1차, 2차 충원에서도 선발된 경우, 3차에서 예비 12번으로 선발될 가능성은 매우 낮습니다.
+만약 합격 가능성을 확인하고 싶다면, 동의대학교 입학관리팀에 직접 문의하거나, 입학 홈페이지를 통해 최종 합격자 발표 일정을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.2793232082075829</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 그러나 유아교육학과의 경우, 학생부종합전형을 주로 사용하므로 수능 점수가 단순히 높다고 해서 무조건적으로 합격할 확률이 높지는 않습니다.
+다음은 고려해야 할 몇 가지 요소입니다:
+1. **학생부 성적**: 수능 점수 외에도 학생부에서의 성적이 중요합니다. 특히 교과성적, 진로활동 등이 반영됩니다.
+2. **면접 평가**: 유아교육학과는 인성과 역량을 중점적으로 평가하기 때문에 면접에서도 좋은 점수를 받는 것이 중요합니다.
+3. **추천서 및 자기소개서**: 이 부분도 중요한 요인입니다. 잘 작성된 추천서와 자기소개서는 합격에 큰 도움이 될 수 있습니다.
+4. **모집정원과 경쟁률**: 유아교육학과의 모집정원과 경쟁률을 고려해야 합니다. 경쟁률이 높다면, 4.75라는 점수만으로는 합격하기 어렵습니다.
+따라서, 수능 점수가 높은 만큼 학생부와 면접 등 다른 평가 요소에서도 좋은 성적을 내야 합니다. 또한 유아교육학과의 모집정원과 경쟁률을 확인하여 현실적인 목표를 설정하는 것이 좋습니다.
+만약 정확한 정보가 필요하다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1236827228617011</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 보육가정상담학과(현재 아동학과)를 지원하실 경우, 환산등급 4.16은 좋은 성적입니다만, 최종 합격 여부는 여러 요소에 따라 결정됩니다.
+아동학과는 인문사회과학대학의 일부로, 해당 대학에서의 경쟁률과 모집인원을 고려해야 합니다. 또한, 지원자의 등급뿐만 아니라 서류평가와 면접 성적도 중요한 평가 항목입니다.
+현재 제공된 정보만으로는 정확한 합격 확률을 예측하기 어렵습니다. 하지만 환산등급 4.16은 경쟁력 있는 수준이며, 이전 년도의 입학성적과 비교해보면 좋은 성적이므로 합격 가능성은 높다고 볼 수 있습니다.
+추가적으로 고려해야 할 사항:
+1. **경쟁률**: 아동학과의 경쟁률을 확인하세요.
+2. **서류평가와 면접**: 서류평가 영역에서 공동체역량, 학업역량, 전공적합성 등에 대한 평가 결과를 고려해야 합니다.
+3. **최종 합격선**: 최저합격선을 확인하고, 자신의 성적이 그 이상인지 확인하세요.
+만약 가능하다면, 동의대학교 입학관리 홈페이지나 총학생회 등의 정보를 참고하거나, 입학처에 직접 문의하는 것이 가장 정확한 답변을 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.138744931119635</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프很想回答这个问题，但需要先分析给出的信息：
+1. 表格标题：支持者注意事项（互联网报名注意事项）
+2. 表格内容提到了申请费的支付和确认等事项。
+3. 没有直接提到软件融合学部的具体信息。
+根据提供的信息，我们无法直接得知软件融合学部的录取要求。但是，可以参考其他相关表格来推测：
+1. **表标题：支持者注意事项（考试成绩公布及注册金缴纳）**
+2. **表内容**：
+   - 最初合格者和补充合格者的公布将在学校网站上进行。
+   - 所有申请者必须在公布的截止日期内检查自己的合格状态，否则被视为放弃。
+3. **表标题：支持者注意事项（其他注意事项）**
+4. **表内容**：
+   - 申请者必须熟悉招生简章及学校网站上的考生注意事项。未充分了解导致的所有不利后果由申请者自行承担。
+   - 我们大学的定期招生申请人默认同意提供高考成绩信息。
+5. **表标题：支持者注意事项（注册(入学)放弃及注册金退款）**
+6. **表内容**：
+   - 退款申请期为2024年2月14日至2024年2月20日12:00。
+   - 在补充期间，如果被其他大学录取并决定注册，则必须立即通知我们大学。
+6. **表标题：考试费用**
+7. **表内容**：
+   - 一般学生申请费（各年级）/ 所有招生单位（设计造型学部、体育学部、休闲体育学部、跆拳道学部除外）35,000元。
+   - 实际技能/实际成绩（一般学生申请）/ 设计造型学部、体育学部、休闲体育学部、跆拳道学部 68,000元。
+根据这些信息，我们无法直接得知软件融合学部的具体录取要求。但是，通常情况下，软件融合学部的录取会参考学生的高考成绩和相关科目（如数学、英语等）的成绩等级。一般而言，需要达到一定的分数或等级才能被录取。
+如果要具体了解软件融合学部的录取要求，建议直接访问东国大学官方网站或者联系招生办公室获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.008583690987124463</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>1. **면접 점수와 세특 내용의 중요성**:
+   - 일반적으로, 동점자 처리 시 면접 성적이 더 높은 순위를 주는 경향이 있습니다.
+   - 그러나 서류 평가에서의 공동체역량, 학업역량, 전공적합성 등 세특 내용도 중요한 역할을 합니다. 따라서 이 두 가지 모두 중요하게 고려됩니다.
+2. **서류 준비**:
+   - **고교 학생부**: 제출하지 않는 경우도 있지만, 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능합니다.
+   - **검정고시 합격자**: 검정고시 합격증서 사본 또는 합격증명서 1부와 검정고시 성적증명서 1부가 필요합니다. 온라인 제공 동의자는 제출할 필요 없음.
+   - **외국 고교 졸업자**: 공증받은 외국고교 졸업(예정)증명서 1부, 공증받은 외국고교 성적증명서 1부가 필요합니다. 학교생활기록부 대체 서류는 제출 여부 선택 가능하며, 원본과 공증된 한국어 번역본을 함께 제출해야 합니다.
+   - **외국어로 작성된 서류**: 외국어로 작성된 서류는 원본과 공증받은 한국어 번역본을 함께 제출해야 합니다.
+3. **서류 제출 기간 및 장소**:
+   - 제출기간: 2024년 1월 3일(수) ~ 1월 12일(금) 17:00까지 도착분에 한함
+   - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+4. **주의사항**:
+   - 서류제출 여부는 홈페이지에서 확인 가능하며, 반드시 본인의 서류제출 여부를 확인해야 합니다.
+   - 미제출 또는 미확인으로 인한 불이익은 전적으로 지원자 본인에게 있습니다.
+따라서, 면접 점수와 세특 내용 모두 중요하게 준비하고, 필요하다면 서류도 철저히 준비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.06209503328841633</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프งoftware공학부의 최초합격자를 위해서는 수능 점수와 등급이 중요한 요소입니다. 주요 정보를 바탕으로 판단해보겠습니다.
+1. **최초합격자 발표 및 등록 일정**:
+   - 최초합격자는 2024년 2월 2일(금) 14:00에 발표됩니다.
+   - 최초합격자의 등록은 2024년 2월 7일(수)부터 2월 13일(화)까지 가능합니다.
+2. **소프ware공학부의 모집인원 및 경쟁률**:
+   - 소프ware공학부는 120명을 모집하며, 지원 인원이 45명으로 경쟁률은 약 2.67입니다.
+   - 이는 비교적 낮은 경쟁률로, 성적이 좋은 지원자가 많아 최초합격에 대한 가능성은 있습니다.
+3. **수능 점수와 등급**:
+   - 소프ware공학부의 수능(일반학생전형) 최고점은 450.71이고, 평균점은 317.87입니다.
+   - 표준 편차는 약 9.08이며, 등급은 평균 4.53입니다.
+4. **성적 기준**:
+   - 동의대학교 소프ware공학부의 수능 점수와 등급을 고려할 때, 지원자의 성적이 4.08이라면 이는 상당히 좋은 성적입니다.
+   - 평균점이 317.87이고 표준 편차가 9.08인 경우, 4.08은 상위 등급에 해당합니다.
+따라서, 지원자의 성적이 4.08이라면 소프ware공학부의 최초합격 가능성은 높습니다. 그러나 최종 합격 여부는 수능 점수뿐만 아니라 전형요소(실기/실적 등)와 면접 결과 등을 종합적으로 평가받아야 합니다.
+결론적으로, 지원자의 성적이 4.08이라면 소프ware공학부의 최초합격 가능성은 높으나, 정확한 확률을 알 수는 없습니다. 전형 요소와 면접 결과 등을 고려하여 최종 결정이 내려질 것입니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.1499504825365777</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도 동점자 처리기준을 보면, 평균 등급이 5등급인 경우는 다음과 같이 처리됩니다:
+- 순위 1: 서류 성적 상위자
+- 순위 2: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자
+- 순위 3: 영어교과 전 과목 등급 평균 상위자
+- 순위 4: 국어교과 전 과목 등급 평균 상위자
+따라서, 평균 등급이 5등급인 경우는 동점자 처리 기준에서 상당히 낮은 위치에 해당합니다. 이는 일반적으로 합격 가능성이 낮을 수 있습니다.
+하지만, 정확한 결정은 여러 요소가综上所述，如果平均等级为5等，则有可能被录取到软件融合学部，但可能性较低。具体情况还需要考虑其他因素，如科目成绩、面试表现等。
+如果有更多详细信息或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.132515268672606</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 진학하기는 어렵다고 볼 수 있습니다. 이유는 다음과 같습니다:
+1. **경쟁률**: 신소재공학과는 매우 인기 있는 학과로, 경쟁률이 높습니다. 표에서 보이는 지원자들의 평균 점수가 4.30~5.78 사이로 매우 높습니다.
+2. **성적 분포**: 표에 나온 신소재공학과의 지원자의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균은 399.26~427.50 사이입니다. 이는 대부분 4.0 이상의 점수가 필요합니다.
+3. **전공적합성**: 신소재공학과는 과학 기반의 전공으로, 수학 및 과학 성적이 높은 지원자가 많습니다. 따라서 일반적인 수능 성적 4.28보다 더 높은 점수가 필요합니다.
+4. **전형 요건**: 동의대학교의 학생부종합전형에서 전공적합성 평가 영역이 중요한 역할을 합니다. 이는 지원자의 과목 선택, 활동 등과 관련된 내용으로, 일반적인 수능 성적이 높은 것보다 전공에 대한 적합성을 보여주는 것이 중요합니다.
+따라서, 4.28이라는 성적만으로는 신소재공학과에 진학하기 어렵다고 볼 수 있습니다. 하지만 다음과 같은 방법들을 고려해볼 수 있습니다:
+- **학생부 종합전형**: 학생부와 면접을 통해 전공 적합성을 평가받습니다. 이 경우 과목 선택, 활동 등이 중요합니다.
+- **추천서 작성**: 선생님이나 지도교사의 추천서를 잘 준비하여 전공적합성에 대한 긍정적인 평가를 받을 수 있습니다.
+- **면접 준비**: 면접에서는 자신의 열정과 목표, 그리고 신소재공학과와의 적합성을 잘 설명해야 합니다.
+결론적으로, 4.28이라는 성적만으로는 어렵지만, 학생부 종합전형 등을 통해 전공적합성 평가를 받으면 가능성이 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.1379251700680272</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능(일반학생전형)에서는 자기소개서를 요구하지 않습니다. 수능(일반학생전형)은 주로 수능 점수에 따라 합격자를 선발하며, 자기소개서는 포함되어 있지 않습니다.
+만약 다른 전형명(예: 학생부종합, 실기/실적 등)에서는 자기소개서가 필요할 수 있으니 해당 전형의 세부 안내를 확인하시기 바랍니다. 
+수능(일반학생전형)에 지원하실 경우 주요 평가 요인은 다음과 같습니다:
+- 수능 국어 + 수학 + 탐구 영역 성적
+- 등급에 따른 점수 
+- 경쟁률
+자세한 내용은 동의대학교 입학 홈페이지를 참조하시거나 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.05508289703315881</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 표준점수가 어느 모집단위에서 나오는지详细了解该问题的背景信息后，给出如下回答：
+根据您提供的信息，您的成绩为4.5的标准分。要判断是否有可能通过追加招生（补充录取）进入东义大学，需要考虑以下几个因素：
+1. **具体的专业和科目**：不同专业和科目的标准分计算方法可能有所不同，请确认您申请的具体专业的详细评分规则。
+2. **剩余名额**：追加招生时是否有空缺名额。如果某个专业在第一次录取后仍有名额，则有可能通过补充录取进入。
+3. **竞争情况**：补充录取的竞争激烈程度如何，以及您的成绩是否能够满足该轮次的最低录取线。
+4. **其他申请者的成绩**：了解其他申请者的表现和成绩分布情况也很重要。如果大多数申请者的分数都高于您，那么被录取的可能性会降低。
+建议您可以：
+- 访问东义大学官网或联系招生办公室获取最新的追加招生信息。
+- 详细了解您所申请专业的具体录取标准和流程。
+- 准备好所有必要的申请材料，并按照规定的时间提交。
+希望这些信息对您有所帮助！如果有更详细的问题，欢迎继续提问。</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.08017492711370261</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 신소재공학과(신소재공학과, 고분자나노공학과)의 모집요강을 보면, 해당 학과는 정시모집군 &lt;가&gt;에 속해 있습니다. 
+&lt;가&gt;군의 경우, 2024년 수능 성적대별 전형선발 계획에서 신소재공학과는 다음과 같은 등급 범위를 요구하고 있습니다:
+- 국어: 3등급 이상
+- 수학: 3등급 이상 
+- 영어: 3등급 이상
+따라서, 신소재공학과에 정시로 지원하려면 위와 같이 3등급 이상의 성적을 보유하고 있어야 합니다. 하지만 이는 최소 기준이며, 실제 경쟁률 등 여러 요인에 따라 더 높은 등급이 필요할 수도 있습니다.
+정확한 합격 가능 등급은 모집인원과 지원자들의 실력 수준 등 다양한 요인에 따라 변동되므로, 정시모집 성적대별 전형선발 계획을 꼭 확인하시고, 자신의 실력을 평가해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.08176100628930819</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 표준점수를 환산할 때, 작년 데이터와 비교해보는 것은 좋은 접근법입니다. 하지만 최종 합격선이 작년과 완전히 일치하지 않을 수 있습니다. 여러 요인들이 최종 합격선을 결정합니다:
+1. **모집 인원 및 지원자 수**: 매년 모집 인원이나 지원자 수가 달라질 수 있어, 이에 따라 경쟁률이 변동될 수 있습니다.
+2. **전형 방식의 변화**: 동의대학교는 전형 방식을 변경하거나 가중치를 조정할 수 있으므로, 표준점수만으로는 정확한 예측이 어렵습니다.
+3. **기타 평가 요소**: 서류평가, 면접 등 다른 평가 항목도 합격 결정에 영향을 미칩니다.
+4. **최종 합격선의 유동성**: 동의대학교는 최종 합격선을 공시할 때 표준점수를 기준으로 하지만, 이는 변동 가능합니다.
+따라서 작년 신소재공학과의 표준점수가 447점보다 약간 높았다고 해도, 2024년에도 동일한 점수로 합격할 수 있는 가능성은 있습니다. 하지만 확실하게 예측하기 위해서는:
+- **최신 모집요강 및 전형방법을 확인**: 동의대학교의 최신 모집요강과 전형 방법을 체크해보세요.
+- **입학관리팀에 문의**: 입학관리팀으로부터 가장 정확한 정보를 얻으시는 것이 좋습니다.
+결론적으로, 작년 데이터만으로는 확실한 예측이 어렵지만, 표준점수 447점 이상으로 합격 가능성은 있습니다. 최신 정보와 전형 방법을 확인하시고, 필요하다면 입학관리팀에 문의하시는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.08817676365178567</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3등급대의 수능 성적이 동의대학교에서 신소재공학부(신소재공학과, 고분자나노공학과)에 지원할 경우, 대략적인 등급 범위인 4.1~4.2를 가지고 붙을 수 있을지는 다음과 같은 요인들을 고려해야 합니다:
+1. **전형방법**: 동의대학교는 일반학생전형에서 수능 성적을 반영합니다. 신소재공학과와 고분자나노공학과는 전반적으로 높은 수능 점수를 요구하는 경향이 있습니다.
+2. **모집인원 및 지원자 수**: 해당 모집단위의 모집인원과 지원자의 수에 따라 합격선이 결정됩니다. 지원자가 많을 경우, 합격선이 상대적으로 높아질 수 있습니다.
+3. **등급 변환**: 동의대학교는 수능 등급을 백분위로 변환하여 성적을 산출합니다. 4.1~4.2등급은 대략적인 점수 범위일 뿐, 실제 변환된 점수가 합격선에 미치는 영향이 크므로 정확한 예측은 어렵습니다.
+4. **전공적합성 및 기타 요인**: 수능 성적이 중요한 요소지만, 전공적합성, 면접 결과 등도 고려됩니다. 특히 신소재공학과와 고분자나노공학과는 실무 경험이나 관련 활동 경험이 요구될 수 있으므로 이 부분을 잘 준비해야 합니다.
+5. **최종 합격선**: 최종 합격선은 입학전형일정이 끝난 후 발표되므로, 현재의 예측만으로 확실한 결론을 내리기는 어렵습니다.
+결론적으로 4.1~4.2등급은 신소재공학부에 붙기에는 약간 낮은 점수 범위일 수 있습니다. 그러나 수능 성적이 단순히 합격 여부의 유일한 요인만이 아니므로, 전공적합성과 기타 지원자들의 경쟁력을 고려해야 합니다.
+추가적으로, 동의대학교 입학전형 일정을 확인하고, 필요하다면 면접 준비나 추가 활동을 통해 자신의 강점을 부각시킬 수 있는 방법을 고려해보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.1483646076120431</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능(일반학생전형) 최저합격 기준을 확인해보겠습니다. 
+- **전형명**: 인공지능학과 (나군 실기/실적)
+- **모집단위**: 인공지능학과
+- **최근 합격자 성적**:
+  - 수능 국어: 표준점수 293.11
+  - 수능 수학(미적분 또는 기하): 표준점수 453.15
+  - 수능 영어: 등급 점수 (등급에 따른 점수)
+  - 탐구: 표준점수 14.35
+**성적 요약**: 
+- 국어: 293.11
+- 수학: 453.15
+- 영어: 등급 점수 (예: 8등급)
+- 탐구: 14.35
+**주의사항**:
+1. **영어 등급**: 실제 등급에 따른 점수가 반영됩니다.
+2. **탐구 영역**: 지정과목이 없으며, 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수로 계산됩니다.
+**추천 성적**:
+- 국어: 290 이상
+- 수학: 450 이상 (미적분 또는 기하)
+- 영어: 8등급 이상
+- 탐구: 13.5 이상
+이러한 성적이 최소 기준이며, 경쟁률이 높은 만큼 더 높은 점수를 목표로 하시는 것이 좋습니다.
+**추가 정보**: 
+- 수능 전형성적 산출방법: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+이 정보를 참고하여 자신의 성적이 어느 정도인지 평가해보시고, 필요하다면 추가 준비를 하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.2011785219520721</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능 점수만으로는 정확히 어떤 전형에 합격할 수 있는지 판단하기 위해서는 몇 가지 정보가 필요합니다:
+1. **모집단위별 수능 반영방법**: 각 모집단위별로 수능 반영 방식이 다릅니다. 일부 모집단위는 국어, 수학, 영어 등급을 반영하고, 다른 모집단위는 표준점수를 반영할 수 있습니다.
+2. **가산점 유무**: 특정 전형에서는 수능 점수가 가산점을 받을 수도 있습니다 (예: 공과대학, ICT융합공과대학의 수학 영역).
+3. **등급 평균 및 분포**: 5.27이라는 등급은 어느 정도의 표준점수를 의미하는지 확인해야 합니다.
+4. **모집인원 및 지원자 수**: 각 모집단위별로 모집인원과 지원자의 수에 따라 경쟁률이 달라질 수 있습니다.
+다음은 일반적인 점수 평균을 참고로 하는데, 실제 합격 가능성은 위의 요소들을 고려해야 합니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 이 값이 중요합니다. 5.27 등급을 가진 학생의 평균 표준점수를 알고 있어야 합니다.
+- **영어 등급 및 수능 4개 영역 등급**: 이 역시 중요한 요소입니다.
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 가산점을 받는 경우, 이 값도 고려해야 합니다.
+**추천 전형 예시:**
+1. **인문사회과학대학**: 국어와 사회탐구 등급을 중점적으로 반영합니다.
+2. **공과대학 및 ICT융합공과대학**: 수학 영역의 표준점수를 중점적으로 반영하며, 가산점을 받을 수도 있습니다.
+**주의사항:**
+- 5.27 등급은 상대적으로 낮은 점수이므로 경쟁률이 높은 모집단위에서는 합격하기 어려울 수 있습니다.
+- 특정 전형에서는 표준점수가 더 중요할 수 있으므로, 해당 전형의 수능 반영방법을 확인해야 합니다.
+**결론:**
+5.27 등급으로는 경쟁률이 높은 모집단위에서는 합격하기 어려울 가능성이 큽니다. 그러나 경쟁률이 낮은 모집단위나 특정 전형에서는 합격 가능성도 있습니다. 정확한 판단을 위해서는 각 모집단위별 수능 반영방법과 지원자 수, 모집인원 등을 고려해야 합니다.
+추가 정보를 제공해주시면 더 구체적인 조언을 드릴 수 있을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.157604003778994</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 수능 등급으로 해석하면 대략 B등급 정도입니다. 이 점수를 가지고 소프웨어공학부에 지원하는 것은 가능하지만, 경쟁률과 모집인원을 고려할 때 매우 어려울 것으로 예상됩니다.
+소프트웨어공학부의 경우 일반적으로 다음과 같은 특징이 있습니다:
+1. **경쟁률**: 매우 높습니다.
+2. **모집인원**: 제한적입니다.
+3. **전형요소**: 주로 수능 성적이 중요합니다.
+4.2 등급을 가진 지원자가 소프트웨어공학부에 합격하기 위해서는 다음과 같은 조건들을 충족시켜야 합니다:
+1. **수능 점수**: 높은 수능 점수를 보유하고 있어야 합니다.
+2. **면접 성적**: 좋은 면접 성적이 필요합니다 (일부 전형에서는 면접이 중요하게 평가됩니다).
+3. **추천서 및 자기소개서 등 서류평가**: 우수한 서류평가 점수를 받을 수 있어야 합니다.
+따라서, 4.2 등급으로 소프트웨어공학부에 지원하는 것은 가능하지만, 매우 어려울 것으로 예상됩니다. 경쟁률이 높고 모집인원이 제한적이기 때문에, 다른 전형이나 대학을 고려해보는 것이 좋습니다.
+추가적으로, 동의대학교의 정시모집에서 소프트웨어공학부의 모집인원과 경쟁률을 확인하여 더 구체적인 판단을 내리는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.1320265009220682</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92라는 점수를 가지고 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 정시 일반학생전형에 지원이 가능한지 판단해보겠습니다.
+1. **성적 산출방법 확인**:
+   - 화학환경공학부는 &lt;나&gt;군(일반학생전형)에 해당합니다.
+   - &lt;나&gt;군의 성적 산출 방법은 다음과 같습니다:
+     ```
+     국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점
+     ```
+2. **가산점 확인**:
+   - 화학환경공학부는 "수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1" 가산점을 받습니다.
+3. **성적 예상**:
+   - 3.92라는 점수가 국어, 수학, 영어 등급, 탐구 등급을 합친 결과입니다.
+   - 이 점수를 화학환경공학부의 성적 산출 방법에 맞춰 계산해보겠습니다.
+4. **예시 계산**:
+   - 예를 들어, 국어 90점 (표준점수), 수학 100점 (표준점수), 영어 8등급 (123점), 탐구 50점 (표준점수) 가 가정됩니다.
+     ```
+     90 + 100 + 123 + 50 = 363
+     ```
+   - 만약 수학(미적분 또는 기하) 응시자라면, 수학 표준점수에 0.1을 곱하여 가산점을 받습니다.
+     ```
+     100 * 1.1 = 110 (가산점 적용)
+     ```
+   - 따라서 최종 점수는:
+     ```
+     90 + 110 + 123 + 50 = 373
+     ```
+5. **결론**:
+   - 3.92라는 점수가 화학환경공학부의 성적 산출 방법에 맞춰 계산된 예시 점수보다 낮습니다.
+   - 일반적으로 4.0 이상이 필요하다는 추정이 가능합니다.
+따라서, 3.92라는 점수로는 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 정시 일반학생전형에 지원하기 어렵다고 판단됩니다. 더 높은 성적을 목표로 하거나 다른 전형을 고려해보는 것이 좋겠습니다.
+만약 자세한 정보가 필요하시다면, 동의대학교 입학처 웹사이트나 학교 관계자에게 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.07048929425389173</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>4.25라는 점수는 중학교 졸업과목 평균 점수를 의미하는 것 같습니다. 하지만 이 정보만으로는 정확한 판단이 어렵습니다. 동의대학교 화학환경공학부에 지원하려면 수능 성적을 확인해야 합니다.
+화학환경공학부는 공과대학에 속해 있으며, 일반적으로 공과대학의 모집단위들은 수능 성적이 중요합니다. 수능 반영방법 및 모집단위별로 차이가 있을 수 있으므로, 정확한 정보를 얻기 위해서는 다음과 같은 절차를 따르시는 것이 좋습니다:
+1. **수능 반영방법 확인**: 동의대학교 공과대학 화학환경공학부의 수능 반영방법을 확인하세요. 위에서 제공된 "수능 반영영역 및 가산점" 표를 참조하면, 화학환경공학부는 수능 국어(25%), 수학(25%), 영어(25%), 탐구(25%) 영역의 점수를 반영합니다.
+2. **성적 확인**: 자신의 수능 성적을 확인하고, 위에서 언급한 반영방법에 따라 점수를 합산해보세요.
+   - 예: 국어 104점 (표준점수), 수학 108점 (표준점수), 영어 6등급, 탐구 과목 중 상위 2개의 표준점수를 더한 점수를 합산합니다.
+3. **모집인원 확인**: 해당 모집단위의 모집인원과 지원 인원을 확인하여 경쟁률을 파악하세요.
+   - 위에서 제공된 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표를 참조하면, 화학환경공학부의 모집인원과 지원 인원을 확인할 수 있습니다.
+4. **합격 기준 확인**: 동등한 점수의 학생들과의 경쟁률을 고려하여 합격 가능성을 판단하세요.
+   - 위에서 제공된 "다군 수능(일반학생전형) 동점자 처리기준" 표를 참조하면, 동점자 처리 기준이 어떻게 적용되는지 확인할 수 있습니다.
+위 정보들을 종합적으로 분석한 후에 지원 가능성을 판단하시면 좋을 것 같습니다. 만약 추가적인 질문이나 자세한 정보가 필요하다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.09742421692959859</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2의 국어+수학+영어 등급은 일반적으로 동의대학교의 정시 전형에서 좋은 점수입니다. 그러나 영화학과의 경우, 학업역량과 창의성, 면접 성능 등을 고려하여 평가되기 때문에 단순히 수능점수만으로는 확답하기 어렵습니다.
+다음은 몇 가지 주요 포인트입니다:
+1. **전형 요소**: 동의대학교의 정시 전형에서는 수능 점수가 60% 이상 반영되며, 나머지 40%는 서류와 면접 등 학업역량과 창의성 등을 평가합니다.
+2. **학업역량 및 창의성**: 영화학과는 창의적 표현력과 예술적 감각이 중요하므로, 지원서나 면접에서 이러한 요소를 잘 보여줄 수 있어야 합니다.
+3. **경쟁률**: 현재 동의대학교의 경쟁률은 매우 높으므로, 4.2의 점수로도 합격하기 어렵지 않을까 싶습니다. 하지만 최종 합격 여부는 모집단위와 지원 인원 등 여러 요인에 따라 달라질 수 있습니다.
+4. **면접 준비**: 면접에서는 자신의 창의성과 영화에 대한 이해를 잘 보여줄 수 있어야 합니다. 예시 작품 분석, 창작 아이디어 등을 준비해보세요.
+5. **서류 제출**: 지원 서류에서도 창의적 활동이나 관련 경험을 잘 기재해야 합니다.
+결론적으로 4.2의 점수로는 합격 가능성은 있지만, 경쟁률이 높고 면접 및 서류 평가도 중요하므로 최선을 다해 준비하는 것이 좋습니다. 지원 결과를 확인하기 위해 정시 모집일정에 따른 발표 일정을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.1099534559018261</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 개별면접 형태로 진행되며, 면접위원 2~3인이 평가를 담당합니다. 또한 블라인드 면접 방식으로 진행되므로 개인 신상 정보(수험번호, 성명, 출신고교, 부모직업 등) 노출이 금지되고 교복 착용도 금지됩니다.
+참고로 면접 시간은 1인당 10분 이내입니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.5374110138959203</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.4206791453140423</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.2981768525347597</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.2358938287951698</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.359427998924401</v>
+      <c r="D305" t="n">
+        <v>0.3182499422146572</v>
       </c>
     </row>
   </sheetData>
